--- a/电商项目/TP商城等价类划分.xlsx
+++ b/电商项目/TP商城等价类划分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>输入重复手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,169 +76,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>输入与密码不一样的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与密码不一样的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入与密码一致的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与密码一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入要求和输入框提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@ab123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非字母、非数字、非符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@#$%&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为17位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为5位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6到16位大小写英文字母，数字或者符号的组合，（可以是纯字母，数字。符号）</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入要求和输入框提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@ab123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非字母、非数字、非符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为5位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击刷新按钮是否可以更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入和图片内容不一致的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与图片内容不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入与图片内容一致的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与图片内容一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13你好你好你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13abcdefg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非数字（字母、字符、汉字等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位为1，第二位非2，大于11位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位为1，第二位为2，11位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位不为1，第二位非2，11位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位为1，第二位非2，11位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>手机号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入与密码不一样的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与密码不一样的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入与密码一致的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与密码一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入要求和输入框提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!@ab123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三四五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非字母、非数字、非符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!@#$%&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度为17位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度为5位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6到16位大小写英文字母，数字或者符号的组合，（可以是纯字母，数字。符号）</t>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入要求和输入框提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!@ab123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三四五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非字母、非数字、非符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度为5位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击刷新按钮是否可以更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入和图片内容不一致的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与图片内容不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入与图片内容一致的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与图片内容一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13你好你好你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13abcdefg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非数字（字母、字符、汉字等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一位为1，第二位非2，大于11位自然数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一位为1，第二位为2，11位自然数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一位不为1，第二位非2，11位自然数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一位为1，第二位非2，11位自然数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +256,46 @@
   </si>
   <si>
     <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册协议前打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同意中注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册协议前不打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框下底文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有底纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册，马上登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否能正常的跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -349,80 +385,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,25 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,10 +422,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,74 +751,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12">
         <v>13488888888</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>23488888888</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2">
         <v>12488888888</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>124888888881</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
@@ -877,254 +827,254 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>12345</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3">
         <v>123456</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
         <v>1.23123123123123E+16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="14" t="s">
-        <v>26</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14" t="s">
-        <v>33</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2">
         <v>12345</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="3">
         <v>123456</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2">
         <v>1.23123123123123E+16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14" t="s">
-        <v>26</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14" t="s">
-        <v>23</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>13488888888</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1135,10 +1085,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1147,10 +1097,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1159,10 +1109,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1171,11 +1121,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1183,28 +1133,28 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="8" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1219,8 +1169,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1230,14 +1180,50 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A2:A32"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="B18:B23"/>
@@ -1245,6 +1231,12 @@
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="E6:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/电商项目/TP商城等价类划分.xlsx
+++ b/电商项目/TP商城等价类划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="注册功能" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>输入重复手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,13 +296,17 @@
   </si>
   <si>
     <t>是否能正常的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6到16位大小写英文字母，数字或者符号的组合，（可以是纯字母，数字。符号）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -1224,6 +1228,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="B18:B23"/>
@@ -1231,13 +1242,6 @@
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
